--- a/bank statement generator/bank_statements/statement_40.xlsx
+++ b/bank statement generator/bank_statements/statement_40.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 04.03.2025</t>
+          <t>KONTOSTAND AM 30.06.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,110 +759,110 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>05.03.</t>
+          <t>03.07.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>06.03.</t>
+          <t>04.07.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 57977890</t>
+          <t>BEITRAG Allianz SE K-10722420</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>84,68-</t>
+          <t>55,07-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>09.03.</t>
+          <t>04.07.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>10.03.</t>
+          <t>05.07.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Teterow</t>
+          <t>KARTENZ./04.07 ALDI SUED RO</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>25,01-</t>
+          <t>81,56-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>11.03.</t>
+          <t>08.07.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>12.03.</t>
+          <t>09.07.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./11.03 EDEKA RO</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>23,14-</t>
+          <t>24,50-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>14.03.</t>
+          <t>12.07.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>15.03.</t>
+          <t>13.07.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG ARAL TANKSTELLE</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 69717726</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>47,86-</t>
+          <t>85,19-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>17.03.</t>
+          <t>13.07.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>18.03.</t>
+          <t>14.07.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 69079913</t>
+          <t>RECHNUNG VODAFONE GMBH 46256545</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>39,74-</t>
+          <t>40,24-</t>
         </is>
       </c>
     </row>
@@ -877,12 +877,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 21.03.2025</t>
+          <t>KONTOSTAND AM 17.07.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>220,43-</t>
+          <t>286,56-</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 29.03.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 24.07.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
